--- a/keylist.xlsx
+++ b/keylist.xlsx
@@ -1574,7 +1574,7 @@
       <c r="B1" s="88" t="n"/>
       <c r="C1" s="78" t="n"/>
       <c r="D1" s="77" t="n">
-        <v>100000</v>
+        <v>97000</v>
       </c>
       <c r="E1" s="78" t="n"/>
       <c r="F1" s="84" t="inlineStr">
@@ -1596,7 +1596,7 @@
       <c r="B2" s="90" t="n"/>
       <c r="C2" s="80" t="n"/>
       <c r="D2" s="79" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" s="80" t="n"/>
       <c r="F2" s="85" t="inlineStr">
@@ -1618,7 +1618,7 @@
       <c r="B3" s="90" t="n"/>
       <c r="C3" s="92" t="n"/>
       <c r="D3" s="81" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E3" s="80" t="n"/>
       <c r="F3" s="86">
@@ -1639,7 +1639,7 @@
       <c r="B4" s="96" t="n"/>
       <c r="C4" s="97" t="n"/>
       <c r="D4" s="82" t="n">
-        <v>44328.23021547794</v>
+        <v>44459.24246989827</v>
       </c>
       <c r="E4" s="83" t="n"/>
       <c r="F4" s="98" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B7" s="27" t="n"/>
       <c r="C7" s="40" t="n">
-        <v>44326.23021547794</v>
+        <v>44459.24246989827</v>
       </c>
       <c r="D7" s="55">
         <f>E7+F7</f>
@@ -5025,7 +5025,7 @@
       <c r="D8" s="80" t="n"/>
       <c r="E8" s="120" t="inlineStr">
         <is>
-          <t>Шарыпбаева Жылдызгул Сабыровна</t>
+          <t>Жыргалбекова Айсулуу Жыргалбековна</t>
         </is>
       </c>
       <c r="F8" s="88" t="n"/>
@@ -5055,7 +5055,7 @@
       <c r="D10" s="80" t="n"/>
       <c r="E10" s="119" t="inlineStr">
         <is>
-          <t>Таавалдиева Айпери Боркошалиевна</t>
+          <t>Казыбеков А. К.</t>
         </is>
       </c>
       <c r="F10" s="90" t="n"/>
@@ -5479,7 +5479,7 @@
       <c r="D35" s="80" t="n"/>
       <c r="E35" s="141" t="inlineStr">
         <is>
-          <t>Доход от бизнеса</t>
+          <t>Заработная плата</t>
         </is>
       </c>
       <c r="F35" s="90" t="n"/>
